--- a/tests/fixtures/verification/cases/semantic/00010/00010-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00010/00010-wc_lang.xlsx
@@ -9,8 +9,8 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-22760" yWindow="2340" windowWidth="21560" windowHeight="11840" firstSheet="4" activeTab="12"/>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500" firstSheet="6" activeTab="16"/>
+    <workbookView minimized="1" xWindow="-22760" yWindow="2340" windowWidth="21560" windowHeight="11840" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="-30600" yWindow="2460" windowWidth="28500" windowHeight="11820" tabRatio="500" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4229,7 +4229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="202">
   <si>
     <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-12-05 16:22:38'</t>
   </si>
@@ -4693,9 +4693,6 @@
     <t>!Intention type</t>
   </si>
   <si>
-    <t>test_case_00001</t>
-  </si>
-  <si>
     <t>ode_submodel</t>
   </si>
   <si>
@@ -4723,9 +4720,6 @@
     <t>normal_distribution</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>density_c</t>
   </si>
   <si>
@@ -4786,18 +4780,12 @@
     <t>gram / liter</t>
   </si>
   <si>
-    <t>density not used</t>
-  </si>
-  <si>
     <t>Basic two reactions with three species in one compartment.</t>
   </si>
   <si>
     <t>S3</t>
   </si>
   <si>
-    <t>These MWs balance the reactions</t>
-  </si>
-  <si>
     <t>S3[c]</t>
   </si>
   <si>
@@ -4832,6 +4820,21 @@
   </si>
   <si>
     <t>1 / (molecule * molecule * second)</t>
+  </si>
+  <si>
+    <t>test_case_00010</t>
+  </si>
+  <si>
+    <t>density doesn't matter because rxns mass balanced &amp; no exchange reactions so volume is constant</t>
+  </si>
+  <si>
+    <t>liter</t>
+  </si>
+  <si>
+    <t>These MWs balance the reactions, which ensures constant compartment volume</t>
+  </si>
+  <si>
+    <t>converted initial SBML suite species amounts in moles to molar</t>
   </si>
 </sst>
 </file>
@@ -5642,7 +5645,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5837,7 +5840,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6030,7 +6033,9 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6124,22 +6129,22 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6152,22 +6157,22 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -6372,7 +6377,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6436,20 +6443,20 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -6459,21 +6466,21 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -7369,8 +7376,8 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -7378,7 +7385,9 @@
     <col min="1" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="5" width="15.6640625" style="21" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="15.6640625" customWidth="1"/>
+    <col min="7" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="82" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7434,7 +7443,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="25"/>
@@ -7445,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7455,7 +7464,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="25"/>
@@ -7466,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -7476,7 +7485,7 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7487,13 +7496,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -8334,7 +8343,9 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8364,7 +8375,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -8382,7 +8393,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -10053,7 +10064,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10085,7 +10096,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10117,7 +10128,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -10383,13 +10394,13 @@
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="3"/>
@@ -10519,7 +10530,9 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10658,24 +10671,24 @@
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
         <v>159</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
@@ -10684,10 +10697,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -10988,7 +11001,9 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11088,10 +11103,10 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -11104,22 +11119,22 @@
         <v>0</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="14" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -11132,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="14" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -11160,13 +11175,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="14" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="N6" s="3"/>
     </row>
@@ -11334,7 +11349,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11390,17 +11407,17 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -11410,17 +11427,17 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -11430,17 +11447,17 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -11583,11 +11600,15 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11647,14 +11668,14 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="18">
         <v>1E-4</v>
@@ -11663,24 +11684,26 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="18">
         <v>2.0000000000000001E-4</v>
@@ -11689,24 +11712,26 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" s="18">
         <v>1E-4</v>
@@ -11715,12 +11740,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/tests/fixtures/verification/cases/semantic/00010/00010-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00010/00010-wc_lang.xlsx
@@ -9,8 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-22760" yWindow="2340" windowWidth="21560" windowHeight="11840" firstSheet="4" activeTab="12"/>
-    <workbookView xWindow="-30600" yWindow="2460" windowWidth="28500" windowHeight="11820" tabRatio="500" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="24900" windowHeight="4400" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-100" yWindow="4920" windowWidth="28500" windowHeight="4820" tabRatio="500" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="20" yWindow="10160" windowWidth="28960" windowHeight="5580" tabRatio="500" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="140" yWindow="15760" windowWidth="36800" windowHeight="5860" tabRatio="500" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4229,7 +4231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="218">
   <si>
     <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-12-05 16:22:38'</t>
   </si>
@@ -4711,9 +4713,6 @@
     <t>cellular_compartment</t>
   </si>
   <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
     <t>gram</t>
   </si>
   <si>
@@ -4807,27 +4806,9 @@
     <t>reaction_2-forward</t>
   </si>
   <si>
-    <t>k1 * S1[c] * S2[c]</t>
-  </si>
-  <si>
-    <t>k2 * S3[c]</t>
-  </si>
-  <si>
     <t>k2</t>
   </si>
   <si>
-    <t>1 / (molecule * second)</t>
-  </si>
-  <si>
-    <t>1 / (molecule * molecule * second)</t>
-  </si>
-  <si>
-    <t>test_case_00010</t>
-  </si>
-  <si>
-    <t>density doesn't matter because rxns mass balanced &amp; no exchange reactions so volume is constant</t>
-  </si>
-  <si>
     <t>liter</t>
   </si>
   <si>
@@ -4835,16 +4816,86 @@
   </si>
   <si>
     <t>converted initial SBML suite species amounts in moles to molar</t>
+  </si>
+  <si>
+    <t>test_case_00010_pop_mass_independent</t>
+  </si>
+  <si>
+    <t>abstract_compartment</t>
+  </si>
+  <si>
+    <t>pop_2_conc</t>
+  </si>
+  <si>
+    <t>Convert population to concentration</t>
+  </si>
+  <si>
+    <t>1 / (Avogadro * vol_c)</t>
+  </si>
+  <si>
+    <t>mole / (molecule liter)</t>
+  </si>
+  <si>
+    <t>conv</t>
+  </si>
+  <si>
+    <t>Conversion factor for rate laws</t>
+  </si>
+  <si>
+    <t>Avogadro * rl_units_conv</t>
+  </si>
+  <si>
+    <t>1 / mole</t>
+  </si>
+  <si>
+    <t>k2 * S3[c] * pop_2_conc * vol_c * conv</t>
+  </si>
+  <si>
+    <t>k1 * S1[c] * S2[c] * pop_2_conc**2 * vol_c * conv</t>
+  </si>
+  <si>
+    <t>Density compt. C</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule / mole</t>
+  </si>
+  <si>
+    <t>From scipy 1.3.1; will be updated to 2019 SI value eventually</t>
+  </si>
+  <si>
+    <t>vol_c</t>
+  </si>
+  <si>
+    <t>Volume of compartment c</t>
+  </si>
+  <si>
+    <t>Must equal volume of c in Compartments</t>
+  </si>
+  <si>
+    <t>rl_units_conv</t>
+  </si>
+  <si>
+    <t>Units conversion</t>
+  </si>
+  <si>
+    <t>1 / molecule</t>
+  </si>
+  <si>
+    <t>liter mole^-1 second^-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4888,6 +4939,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4957,7 +5021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5048,6 +5112,41 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5357,6 +5456,8 @@
       <selection pane="bottomLeft"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5646,6 +5747,8 @@
       <selection pane="bottomLeft"/>
     </sheetView>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5840,7 +5943,11 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
+      <selection activeCell="A3" sqref="A3:D4"/>
+    </sheetView>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5891,10 +5998,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5902,10 +6017,18 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -6003,15 +6126,15 @@
   </sheetData>
   <autoFilter ref="A2:I2"/>
   <dataValidations count="9">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A12">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A5:A12">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B12">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B5:B12">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C3:C12"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="D3:D12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C5:C12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="D5:D12"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E3:E12"/>
     <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="F3:F12"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G3:G12"/>
@@ -6033,9 +6156,11 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6129,22 +6254,22 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>171</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6157,22 +6282,22 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>188</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -6373,17 +6498,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6443,20 +6574,20 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="19" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -6466,21 +6597,21 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="19" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -6612,7 +6743,7 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E3:E12">
       <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F4:F12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F3:F12"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="G3:G12">
       <formula1>"1 / second"</formula1>
     </dataValidation>
@@ -6640,7 +6771,7 @@
           <x14:formula1>
             <xm:f>'!!Reactions'!$A$4:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 F3</xm:sqref>
+          <xm:sqref>C4:C12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6657,6 +6788,8 @@
       <selection pane="bottomLeft"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6911,6 +7044,8 @@
       <selection pane="bottomLeft"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7134,6 +7269,8 @@
       <selection pane="bottomLeft"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7379,10 +7516,16 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="3">
+      <selection activeCell="B2" sqref="B2:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="5" width="15.6640625" style="21" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="15.6640625" customWidth="1"/>
@@ -7443,7 +7586,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="25"/>
@@ -7454,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7464,7 +7607,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="25"/>
@@ -7475,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -7485,9 +7628,11 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="24">
         <v>1</v>
@@ -7495,50 +7640,78 @@
       <c r="E5" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>182</v>
+      <c r="F5" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="A6" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38">
+        <v>6.0221408570000002E+23</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="40" t="s">
+        <v>210</v>
+      </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="41">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>192</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="42" t="s">
+        <v>213</v>
+      </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="29"/>
+      <c r="D8" s="43">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>216</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -7613,29 +7786,29 @@
   </sheetData>
   <autoFilter ref="A2:K2"/>
   <dataValidations count="11">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A5:A13">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A9:A13">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B5:B13">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B9:B13">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C5:C13">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C9:C13">
       <formula1>"kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D5:D13">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D9:D13">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="F5:F13"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G3:G13"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H3:H13"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I3:I13"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J3:J13">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="F9:F13"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G9:G13"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H9:H13"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I9:I13"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J9:J13">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K3:K13"/>
-    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E5:E13">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K9:K13"/>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E9:E13">
       <formula1>-1E-100</formula1>
     </dataValidation>
   </dataValidations>
@@ -7653,6 +7826,8 @@
       <selection pane="bottomLeft"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7848,6 +8023,8 @@
       <selection pane="bottomLeft"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8346,6 +8523,8 @@
     <sheetView workbookViewId="1">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8375,7 +8554,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -8393,7 +8572,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8626,6 +8805,8 @@
       <selection pane="bottomLeft"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8774,6 +8955,8 @@
       <selection pane="bottomLeft"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9078,6 +9261,8 @@
       <selection pane="bottomLeft"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9434,6 +9619,8 @@
       <selection pane="bottomLeft"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9691,6 +9878,8 @@
       <selection pane="bottomLeft"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10035,6 +10224,8 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2:B6"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10064,7 +10255,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10096,7 +10287,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10128,7 +10319,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -10186,6 +10377,8 @@
       <selection pane="bottomRight"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10347,6 +10540,8 @@
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10526,13 +10721,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
     <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10680,15 +10877,15 @@
         <v>159</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
@@ -10697,10 +10894,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -11004,6 +11201,8 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11103,10 +11302,10 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -11119,22 +11318,22 @@
         <v>0</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="14" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -11147,22 +11346,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="14" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -11175,13 +11374,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="14" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N6" s="3"/>
     </row>
@@ -11352,6 +11551,8 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11407,17 +11608,17 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -11427,17 +11628,17 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -11447,17 +11648,17 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -11603,6 +11804,8 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11668,14 +11871,14 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="18">
         <v>1E-4</v>
@@ -11684,26 +11887,26 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="18">
         <v>2.0000000000000001E-4</v>
@@ -11712,26 +11915,26 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="18">
         <v>1E-4</v>
@@ -11740,13 +11943,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L5" s="3"/>
     </row>

--- a/tests/fixtures/verification/cases/semantic/00010/00010-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00010/00010-wc_lang.xlsx
@@ -2942,7 +2942,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3169,7 +3169,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3426,7 +3426,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3816,7 +3816,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4139,7 +4139,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4419,7 +4419,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4664,7 +4664,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4932,7 +4932,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5301,7 +5301,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5528,7 +5528,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6069,7 +6069,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6400,7 +6400,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6574,7 +6574,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6919,7 +6919,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7325,7 +7325,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7620,7 +7620,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8002,7 +8002,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8184,7 +8184,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8372,7 +8372,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8592,7 +8592,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9101,7 +9101,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9500,7 +9500,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9791,7 +9791,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
